--- a/book_rental/management/commands/uploads/author_upload.xlsx
+++ b/book_rental/management/commands/uploads/author_upload.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>code</t>
   </si>
@@ -34,13 +34,13 @@
     <t>phone(s)</t>
   </si>
   <si>
-    <t>number of books written</t>
-  </si>
-  <si>
     <t>Humayun Ahmed</t>
   </si>
   <si>
     <t>sadasd</t>
+  </si>
+  <si>
+    <t>author1.jpg</t>
   </si>
   <si>
     <t>15/8/1988</t>
@@ -128,15 +128,15 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2">
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -151,9 +151,12 @@
     </row>
     <row r="3">
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -168,9 +171,12 @@
     </row>
     <row r="4">
       <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">

--- a/book_rental/management/commands/uploads/author_upload.xlsx
+++ b/book_rental/management/commands/uploads/author_upload.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="12">
   <si>
     <t>code</t>
   </si>
@@ -105,6 +105,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="52.0"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -189,6 +192,426 @@
         <v>1.723987678E9</v>
       </c>
     </row>
+    <row r="5">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.723987678E9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.723987678E9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.723987678E9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.723987678E9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1.723987678E9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.723987678E9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.723987678E9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.723987678E9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1.723987678E9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.723987678E9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.723987678E9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.723987678E9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.723987678E9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.723987678E9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1.723987678E9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.723987678E9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.723987678E9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1.723987678E9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1.723987678E9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1.723987678E9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1.723987678E9</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/book_rental/management/commands/uploads/author_upload.xlsx
+++ b/book_rental/management/commands/uploads/author_upload.xlsx
@@ -1,84 +1,172 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="17">
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>author name</t>
-  </si>
-  <si>
-    <t>author_name_bn</t>
-  </si>
-  <si>
-    <t>author description</t>
-  </si>
-  <si>
-    <t>author description bn</t>
-  </si>
-  <si>
-    <t>show bn</t>
-  </si>
-  <si>
-    <t>author image</t>
-  </si>
-  <si>
-    <t>date of birth</t>
-  </si>
-  <si>
-    <t>email(s)</t>
-  </si>
-  <si>
-    <t>phone(s)</t>
-  </si>
-  <si>
-    <t>Humayun Ahmed</t>
-  </si>
-  <si>
-    <t>কাঠবেড়ালির বন্ধু(পেপারব্যাক)</t>
-  </si>
-  <si>
-    <t>sadasd</t>
-  </si>
-  <si>
-    <t>মা আমার চোখের আলো</t>
-  </si>
-  <si>
-    <t>author1.jpg</t>
-  </si>
-  <si>
-    <t>15/8/1988</t>
-  </si>
-  <si>
-    <t>s1@gmail.com, s2@gmail.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="19">
+  <si>
+    <t xml:space="preserve">code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">author name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">author_name_bn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">author description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">author description bn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show bn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">author image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date of birth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phone(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humayun Ahmed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="19"/>
+        <color rgb="FF444546"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">কাঠবেড়ালির বন্ধু</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="19"/>
+        <color rgb="FF444546"/>
+        <rFont val="Roboto"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="19"/>
+        <color rgb="FF444546"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">পেপারব্যাক</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="19"/>
+        <color rgb="FF444546"/>
+        <rFont val="Roboto"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">sadasd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">মা আমার চোখের আলো</t>
+  </si>
+  <si>
+    <t xml:space="preserve">author1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/8/1988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1@gmail.com, s2@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01723987678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">author1.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="7">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
-    <font/>
     <font>
-      <sz val="19.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="19"/>
+      <color rgb="FF444546"/>
+      <name val="FreeSans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="19"/>
       <color rgb="FF444546"/>
       <name val="Roboto"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -86,59 +174,153 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF444546"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4:G25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="3" width="52.0"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="50.7551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -170,7 +352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -183,8 +365,8 @@
       <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1">
-        <v>1.0</v>
+      <c r="F2" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>14</v>
@@ -195,11 +377,11 @@
       <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="1">
-        <v>1.723987678E9</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -212,11 +394,11 @@
       <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1">
-        <v>1.0</v>
+      <c r="F3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>15</v>
@@ -224,11 +406,11 @@
       <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="1">
-        <v>1.723987678E9</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="26.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
@@ -241,11 +423,11 @@
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1">
-        <v>1.0</v>
+      <c r="F4" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>15</v>
@@ -253,11 +435,11 @@
       <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="1">
-        <v>1.723987678E9</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -270,11 +452,11 @@
       <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="1">
-        <v>1.0</v>
+      <c r="F5" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>15</v>
@@ -282,11 +464,11 @@
       <c r="I5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="1">
-        <v>1.723987678E9</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -299,11 +481,11 @@
       <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="1">
-        <v>1.0</v>
+      <c r="F6" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>15</v>
@@ -311,11 +493,11 @@
       <c r="I6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="1">
-        <v>1.723987678E9</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="J6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -328,11 +510,11 @@
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="1">
-        <v>1.0</v>
+      <c r="F7" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>15</v>
@@ -340,11 +522,11 @@
       <c r="I7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="1">
-        <v>1.723987678E9</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -357,11 +539,11 @@
       <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="1">
-        <v>1.0</v>
+      <c r="F8" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>15</v>
@@ -369,11 +551,11 @@
       <c r="I8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="1">
-        <v>1.723987678E9</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="J8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
@@ -386,11 +568,11 @@
       <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="1">
-        <v>1.0</v>
+      <c r="F9" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>15</v>
@@ -398,11 +580,11 @@
       <c r="I9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="1">
-        <v>1.723987678E9</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="J9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -413,7 +595,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>15</v>
@@ -421,11 +603,11 @@
       <c r="I10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="1">
-        <v>1.723987678E9</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="J10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -436,7 +618,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>15</v>
@@ -444,11 +626,11 @@
       <c r="I11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="1">
-        <v>1.723987678E9</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="J11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -459,7 +641,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>15</v>
@@ -467,11 +649,11 @@
       <c r="I12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="1">
-        <v>1.723987678E9</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="J12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -482,7 +664,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>15</v>
@@ -490,11 +672,11 @@
       <c r="I13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="1">
-        <v>1.723987678E9</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="J13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -505,7 +687,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>15</v>
@@ -513,11 +695,11 @@
       <c r="I14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="1">
-        <v>1.723987678E9</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="J14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -528,7 +710,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>15</v>
@@ -536,11 +718,11 @@
       <c r="I15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="1">
-        <v>1.723987678E9</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="J15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
@@ -551,7 +733,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>15</v>
@@ -559,11 +741,11 @@
       <c r="I16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="1">
-        <v>1.723987678E9</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="J16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
@@ -574,7 +756,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>15</v>
@@ -582,11 +764,11 @@
       <c r="I17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="1">
-        <v>1.723987678E9</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="J17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
@@ -597,7 +779,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>15</v>
@@ -605,11 +787,11 @@
       <c r="I18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="1">
-        <v>1.723987678E9</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="J18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
@@ -620,7 +802,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>15</v>
@@ -628,11 +810,11 @@
       <c r="I19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="1">
-        <v>1.723987678E9</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="J19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
@@ -643,7 +825,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>15</v>
@@ -651,11 +833,11 @@
       <c r="I20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="1">
-        <v>1.723987678E9</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="J20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
@@ -666,7 +848,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>15</v>
@@ -674,11 +856,11 @@
       <c r="I21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="1">
-        <v>1.723987678E9</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="J21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
@@ -689,7 +871,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>15</v>
@@ -697,11 +879,11 @@
       <c r="I22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="1">
-        <v>1.723987678E9</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="J22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
@@ -712,7 +894,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>15</v>
@@ -720,11 +902,11 @@
       <c r="I23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="1">
-        <v>1.723987678E9</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="J23" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
@@ -735,7 +917,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>15</v>
@@ -743,11 +925,11 @@
       <c r="I24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="1">
-        <v>1.723987678E9</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="J24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
@@ -758,7 +940,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>15</v>
@@ -766,11 +948,17 @@
       <c r="I25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="1">
-        <v>1.723987678E9</v>
+      <c r="J25" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>